--- a/MachineBookExtract/output.xlsx
+++ b/MachineBookExtract/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:EX13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,62 +434,471 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Len</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SDC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>LDC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SDP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LDP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>WordsTotal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>AdjAmount</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>AdjPercent</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Times</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Locations</t>
         </is>
@@ -499,54 +908,325 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>39</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and what is the use of a book, </t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t xml:space="preserve">Alicewithout pictures or conversations?So </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t xml:space="preserve">Ohdear! Oh dear! I shall be late! </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t xml:space="preserve">ORANGE MARMALADE, </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t xml:space="preserve">it.Well! </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t xml:space="preserve">after such a fall as this, I shallthink nothing of tumbling down stairs! How brave they’ll all think meat home! Why, I wouldn’t say anything about it, even if I fell off thetop of the house! </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+          <t xml:space="preserve">I wonder howmany miles I’ve fallen by this time? </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I must begetting somewhere near the centre of the earth. Let me see: that wouldbe four thousand miles down, I think— </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—yes, that’s about the right distance—butthen I wonder what Latitude or Longitude I’ve got to? </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wonder if I shall fall right _through_the earth! How funny it’ll seem to come out among the people that walkwith their heads downward! The Antipathies, I think— </t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—but I shall have to ask them what the name of thecountry is, you know. Please, Ma’am, is this New Zealand or Australia?(and </t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And whatan ignorant little girl she’ll think me for asking! No, it’ll never doto ask: perhaps I shall see it written up somewhere.Down, </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinah’ll miss me very much to-night, I should think!(Dinah </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hope they’ll remember her saucer of milk attea-time. Dinah my dear! I wish you were down here with me! There areno mice in the air, I’m afraid, but you might catch a bat, and that’svery like a mouse, you know. But do cats eat bats, I wonder? </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do cats eat bats? Do cats eat bats? </t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do bats eat cats? </t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">earnestly,Now, Dinah, tell me the truth: did you ever eat a bat? </t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh my earsand whiskers, how late it’s getting! </t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and even if my head would go through, </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it would be of very little use without my shoulders. Oh,how I wish I could shut up like a telescope! I think I could, if I onlyknew how to begin. </t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(which certainly was not herebefore, </t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DRINK ME, </t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drink me, </t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, I’ll look first, </t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">said,and see whether it’s marked ‘_poison_’ or not; </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">poison, </t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">poison, </t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*What a curious feeling! </t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I must be shutting up like atelescope.And </t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">for it might end, you know,said </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">in my going out altogether, like a candle. Iwonder what I should be like then? </t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cried.Come, there’s no use in crying like that! </t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I advise you to leave off this minute! </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">people.But it’s no use now, </t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">to pretend to be twopeople! Why, there’s hardly enough of me left to make _one_ respectableperson!Soon </t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wordsEAT ME </t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I’ll eat it, </t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and if it makes me grow larger, I can reach the key; and if itmakes me grow smaller, I can creep under the door; so either way I’llget into the garden, and I don’t care which happens!She </t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which way? Whichway?, </t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="n">
         <v>2174</v>
       </c>
-      <c r="J2" t="n">
+      <c r="EU2" t="n">
         <v>118</v>
       </c>
-      <c r="K2" t="n">
+      <c r="EV2" t="n">
         <v>5.427782888684453</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="EW2" t="inlineStr">
         <is>
           <t>['day']</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="EX2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -556,54 +1236,349 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>50</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TearsCuriouser and curiouser! </t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">now I’mopening out like the largest telescope that ever was! Good-bye, feet!(for </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t xml:space="preserve">Oh, my poor little feet, Iwonder who will put on your shoes and stockings for you now, dears? I’msure _I_ shan’t be able! I shall be a great deal too far off to troublemyself about you: you must manage the best way you can;—but I must bekind to them, </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t xml:space="preserve">or perhaps they won’t walk the way Iwant to go! Let me see: I’ll give them a new pair of boots everyChristmas.And </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t xml:space="preserve">They mustgo by the carrier, </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t xml:space="preserve">and how funny it’ll seem, sendingpresents to one’s own feet! And how odd the directions will look!_Alice’s Right Foot, Esq., Hearthrug, near the Fender,_ (_withAlice’s love_).Oh dear, what nonsense I’m talking!Just </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+          <t xml:space="preserve">again.You ought to be ashamed of yourself, </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a great girl likeyou, </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">to go on crying in this way! Stopthis moment, I tell you! </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh! the Duchess, theDuchess! Oh! won’t she be savage if I’ve kept her waiting! </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you please,sir— </t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear, dear! Howqueer everything is to-day! And yesterday things went on just as usual.I wonder if I’ve been changed in the night? Let me think: was I thesame when I got up this morning? I almost think I can remember feelinga little different. But if I’m not the same, the next question is, Whoin the world am I? Ah, _that’s_ the great puzzle! </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">them.I’m sure I’m not Ada, </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">for her hair goes in such longringlets, and mine doesn’t go in ringlets at all; and I’m sure I can’tbe Mabel, for I know all sorts of things, and she, oh! she knows such avery little! Besides, _she’s_ she, and _I’m_ I, and—oh dear, howpuzzling it all is! I’ll try if I know all the things I used to know.Let me see: four times five is twelve, and four times six is thirteen,and four times seven is—oh dear! I shall never get to twenty at thatrate! However, the Multiplication Table doesn’t signify: let’s tryGeography. London is the capital of Paris, and Paris is the capital ofRome, and Rome—no, _that’s_ all wrong, I’m certain! I must have beenchanged for Mabel! I’ll try and say ‘_How doth the little_—’ </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">do:—How doth the little crocodileImprove his shining tail,And pour the waters of the NileOn every golden scale!How cheerfully he seems to grin,How neatly spread his claws,And welcome little fishes inWith gently smiling jaws!I’m </t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I must be Mabel after all, andI shall have to go and live in that poky little house, and have next tono toys to play with, and oh! ever so many lessons to learn! No, I’vemade up my mind about it; if I’m Mabel, I’ll stay down here! It’ll beno use their putting their heads down and saying ‘Come up again, dear!’I shall only look up and say ‘Who am I then? Tell me that first, andthen, if I like being that person, I’ll come up: if not, I’ll stay downhere till I’m somebody else’—but, oh dear! </t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do wish they _would_ put their heads down! I am so_very_ tired of being all alone here!As </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How _can_ I have done that? </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I must begrowing small again. </t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">altogether.That _was_ a narrow escape! </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">andnow for the garden! </t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and things are worse thanever, </t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">for I never was so small as thisbefore, never! And I declare it’s too bad, that it is!As </t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and in that case I can go back byrailway, </t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">high.I wish I hadn’t cried so much! </t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I shall be punished for it now, I suppose, bybeing drowned in my own tears! That _will_ be a queer thing, to besure! However, everything is queer to-day.Just </t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">herself.Would it be of any use, now, </t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">to speak to this mouse?Everything is so out-of-the-way down here, that I should think verylikely it can talk: at any rate, there’s no harm in trying. </t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O Mouse, do you know the way out of this pool? I am very tiredof swimming about here, O Mouse! </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mouse—ofa mouse—to a mouse—a mouse—O mouse!) </t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nothing.Perhaps it doesn’t understand English, </t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I daresay it’sa French mouse, come over with William the Conqueror. </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Où est ma chatte? </t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, I beg your pardon! </t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I quite forgot you didn’t likecats.Not </t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Would_you_ like cats if you were me?Well, </t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">don’t be angryabout it. And yet I wish I could show you our cat Dinah: I think you’dtake a fancy to cats if you could only see her. She is such a dearquiet thing, </t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and she sits purring so nicely by the fire, licking herpaws and washing her face—and she is such a nice soft thing tonurse—and she’s such a capital one for catching mice—oh, I beg yourpardon! </t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We won’t talkabout her any more if you’d rather not.We </t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As if _I_ would talk on such a subject! Our family always_hated_ cats: nasty, low, vulgar things! Don’t let me hear the nameagain!I </t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you—are you fond—of—of dogs? </t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is such a nice little dog nearour house I should like to show you! A little bright-eyed terrier, youknow, with oh, such long curly brown hair! And it’ll fetch things whenyou throw them, and it’ll sit up and beg for its dinner, and all sortsof things—I can’t remember half of them—and it belongs to a farmer, youknow, and he says it’s so useful, it’s worth a hundred pounds! He saysit kills all the rats and—oh dear! </t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone,I’m afraid I’ve offended it again! </t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mouse dear! Do come back again, and wewon’t talk about cats or dogs either, if you don’t like them! </t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let us get to the shore, and then I’ll tell you myhistory, and you’ll understand why it is I hate cats and dogs.It </t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="n">
         <v>1926</v>
       </c>
-      <c r="J3" t="n">
+      <c r="EU3" t="n">
         <v>133</v>
       </c>
-      <c r="K3" t="n">
+      <c r="EV3" t="n">
         <v>6.905503634475597</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="EW3" t="inlineStr">
         <is>
           <t>['yesterday']</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="EX3" t="inlineStr">
         <is>
           <t>['French']</t>
         </is>
@@ -613,54 +1588,397 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>71</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I amolder than you, and must know better; </t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t xml:space="preserve">Sit down, all of you, and listen to me! _I’ll_ soon makeyou dry enough! </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t xml:space="preserve">soon.Ahem! </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t xml:space="preserve">are you all ready? Thisis the driest thing I know. Silence all round, if you please! ‘Williamthe Conqueror, whose cause was favoured by the pope, was soon submittedto by the English, who wanted leaders, and had been of late muchaccustomed to usurpation and conquest. Edwin and Morcar, the earls ofMercia and Northumbria—’Ugh! </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t xml:space="preserve">shiver.I beg your pardon! </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+          <t xml:space="preserve">Didyou speak?Not </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hastily.I thought you did, </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—I proceed. ‘Edwin and Morcar,the earls of Mercia and Northumbria, declared for him: and evenStigand, the patriotic archbishop of Canterbury, found it advisable—’Found </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duck.Found _it_, </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">of course you knowwhat ‘it’ means.I </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s generally a frog or a worm. The question is, what did thearchbishop find?The </t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘—foundit advisable to go with Edgar Atheling to meet William and offer himthe crown. William’s conduct at first was moderate. But the insolenceof his Normans—’ How are you getting on now, my dear? </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spoke.As wet as ever, </t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it doesn’t seem todry me at all.In </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I movethat the meeting adjourn, for the immediate adoption of more energeticremedies—Speak </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’t know the meaning of halfthose long words, and, what’s more, I don’t believe you do either! </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">audibly.What I was going to say, </t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">was,that the best thing to get us dry would be a Caucus-race.What </t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">anything.Why, </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the best way to explain it is to do it. </t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(the exactshape doesn’t matter, </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One, two, three, andaway, </t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The race is over! </t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But who has won?This </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Everybody_ has won, and all must have prizes.But </t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.Why, _she_, of course, </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prizes! Prizes!Alice </t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">round.But she must have a prize herself, you know, </t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mouse.Of course, </t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What else have you got inyour pocket? </t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Only a thimble, </t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sadly.Hand it over here, </t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We beg your acceptance of this elegantthimble; </t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">more.You promised to tell me your history, you know, </t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and whyit is you hate—C and D, </t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again.Mine is a long and a sad tale! </t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">andsighing.It _is_ a long tail, certainly, </t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but why do you call it sad? </t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">this:—Fury said to a mouse, That he met in the house, ‘Let us bothgo to law: _I_ will prosecute _you_.—Come, I’ll take nodenial; We must have a trial: For really this morning I’venothing to do.’ Said the mouse to the cur, ‘Such a trial, dearsir, With no jury or judge, would be wasting our breath.’‘I’ll be judge, I’ll be jury,’ Said cunning old Fury: ‘I’lltry the whole cause, and condemn you to death.’You </t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What areyou thinking of?I </t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you had got to the fifthbend, I think?I </t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">angrily.A knot! </t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, do let me help to undo it!I </t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You insult me by talking such nonsense!I </t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But you’re so easily offended,you know!The </t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reply.Please come back and finish your story! </t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, please do! </t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">quicker.What a pity it wouldn’t stay! </t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ah, my dear! Let this be a lesson to you never to lose_your_ temper! </t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hold your tongue, Ma! </t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You’re enough to try the patience of an oyster!I </t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She’d soon fetch it back!And </t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pet:Dinah’s our cat. And she’s such a capital one for catching mice youcan’t think! And oh, I wish you could see her after the birds! Why,she’ll eat a little bird as soon as look at it!This </t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I really must be getting home; the night-airdoesn’t suit my throat! </t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come away, my dears! It’s high time you were all inbed! </t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">leftalone.I wish I hadn’t mentioned Dinah! </t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobody seems to like her, down here, and I’m sure she’s the bestcat in the world! Oh, my dear Dinah! I wonder if I shall ever see youany more! </t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="n">
         <v>1545</v>
       </c>
-      <c r="J4" t="n">
+      <c r="EU4" t="n">
         <v>89</v>
       </c>
-      <c r="K4" t="n">
+      <c r="EV4" t="n">
         <v>5.760517799352751</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="EW4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="EX4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -670,54 +1988,389 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>64</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Duchess! The Duchess! Oh my dear paws! Ohmy fur and whiskers! She’ll get me executed, as sure as ferrets areferrets! Where _can_ I have dropped them, I wonder? </t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t xml:space="preserve">Why, Mary Ann, what _are_ youdoing out here? Run home this moment, and fetch me a pair of gloves anda fan! Quick, now! </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t xml:space="preserve">made.He took me for his housemaid, </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t xml:space="preserve">Howsurprised he’ll be when he finds out who I am! But I’d better take himhis fan and gloves—that is, if I can find them. </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t xml:space="preserve">W. RABBIT, </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>67</t>
+          <t xml:space="preserve">gloves.How queer it seems, </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+          <t xml:space="preserve">to be going messages fora rabbit! I suppose Dinah’ll be sending me on messages next! </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘Miss Alice! Comehere directly, and get ready for your walk!’ ‘Coming in a minute,nurse! But I’ve got to see that the mouse doesn’t get out.’ Only Idon’t think, </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that they’d let Dinah stop in the houseif it began ordering people about like that!By </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DRINK ME, </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I know _something_ interesting is sure tohappen, </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">whenever I eat or drink anything; soI’ll just see what this bottle does. I do hope it’ll make me grow largeagain, for really I’m quite tired of being such a tiny little thing!It </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That’s quite enough—I hope I shan’tgrow any more—As it is, I can’t get out at the door—I do wish I hadn’tdrunk quite so much!Alas! </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now Ican do no more, whatever happens. What _will_ become of me?Luckily </t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unhappy.It was much pleasanter at home, </t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">when one wasn’talways growing larger and smaller, and being ordered about by mice andrabbits. I almost wish I hadn’t gone down that rabbit-hole—and yet—andyet—it’s rather curious, you know, this sort of life! I do wonder what_can_ have happened to me! When I used to read fairy-tales, I fanciedthat kind of thing never happened, and now here I am in the middle ofone! There ought to be a book written about me, that there ought! Andwhen I grow up, I’ll write one—but I’m grown up now, </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">at least there’s no room to grow up any more _here_.But </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shall I _never_ get any older than I amnow? That’ll be a comfort, one way—never to be an old woman—butthen—always to have lessons to learn! Oh, I shouldn’t like _that!_Oh, </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How can you learnlessons in here? Why, there’s hardly room for _you_, and no room at allfor any lesson-books!And </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">listen.Mary Ann! Mary Ann! </t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fetch me my gloves this moment!Then </t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then I’llgo round and get in at the window._That_ </t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rabbit’s—Pat! Pat! Where are you? </t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sure then I’m here! Diggingfor apples, yer honour!Digging </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here! Come andhelp me out of _this!_ </t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">glass.)Now tell me, Pat, what’s that in the window?Sure, </t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">arrum.)An </t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wholewindow!Sure, </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that.Well, </t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sure, I don’t like it, yer honour, at all, atall! </t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do as I tell you, you coward! </t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What a numberof cucumber-frames there must be! </t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wonder whatthey’ll do next! As for pulling me out of the window, I only wish they_could!_ I’m sure _I_ don’t want to stay in here any longer!She </t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Where’s the otherladder?—Why, I hadn’t to bring but one; Bill’s got the other—Bill!fetch it here, lad!—Here, put ’em up at this corner—No, tie ’emtogether first—they don’t reach half high enough yet—Oh! they’ll dowell enough; don’t be particular—Here, Bill! catch hold of thisrope—Will the roof bear?—Mind that loose slate—Oh, it’s coming down!Heads below! </t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crash)—Now, who did that?—It was Bill, Ifancy—Who’s to go down the chimney?—Nay, _I_ shan’t! _You_ doit!—_That_ I won’t, then!—Bill’s to go down—Here, Bill! the master saysyou’re to go down the chimney!Oh! </t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shy, they seem to put everything upon Bill! I wouldn’t be inBill’s place for a good deal: this fireplace is narrow, to be sure; butI _think_ I can kick a little!She </t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is Bill, </t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There goes Bill!then </t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">along—Catch him, you by the hedge! </t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voices—Hold up his head—Brandynow—Don’t choke him—How was it, old fellow? What happened to you? Tellus all about it!Last </t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(That’s Bill, </t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I hardly know—No more, thank ye; I’m better now—but I’ma deal too flustered to tell you—all I know is, something comes at melike a Jack-in-the-box, and up I goes like a sky-rocket!So </t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">others.We must burn the house down! </t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you do, I’ll set Dinah at you!There </t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwonder what they _will_ do next! If they had any sense, they’d take theroof off. </t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A barrowful will do, to begin with.A </t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ll put a stop tothis, </t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You’d better not do thatagain! </t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If I eat one of these cakes, </t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s sure to make_some_ change in my size; and as it can’t possibly make me larger, itmust make me smaller, I suppose.So </t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wood.The first thing I’ve got to do, </t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">is to grow to my right size again; and thesecond thing is to find my way into that lovely garden. I think thatwill be the best plan.It </t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poor littlething! </t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">distance.And yet what a dear little puppy it was! </t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I should have liked teaching it tricks very much, if—if I’donly been the right size to do it! Oh dear! I’d nearly forgotten thatI’ve got to grow up again! Let me see—how _is_ it to be managed? Isuppose I ought to eat or drink something or other; but the greatquestion is, what?The </t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="n">
         <v>2399</v>
       </c>
-      <c r="J5" t="n">
+      <c r="EU5" t="n">
         <v>148</v>
       </c>
-      <c r="K5" t="n">
+      <c r="EV5" t="n">
         <v>6.169237182159233</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="EW5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="EX5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -727,54 +2380,437 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>98</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.Who are _you?_ </t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t xml:space="preserve">I—I hardly know, sir, just at present—at least I knowwho I _was_ when I got up this morning, but I think I must have beenchanged several times since then.What </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Explainyourself!I </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+          <t xml:space="preserve">because I’mnot myself, you see.I </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.I’m afraid I can’t put it more clearly, </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">politely,for I can’t understand it myself to begin with; and being so manydifferent sizes in a day is very confusing.It </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Well, perhaps you haven’t found it so yet, </t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but when youhave to turn into a chrysalis—you will some day, you know—and thenafter that into a butterfly, I should think you’ll feel it a littlequeer, won’t you?Not </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Well, perhaps your feelings may be different, </t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all I knowis, it would feel very queer to _me_.You! </t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who are _you?_Which </t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithink, you ought to tell me who _you_ are, first.Why? </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">away.Come back! </t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve somethingimportant to say!This </t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again.Keep your temper, </t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Is that all? </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shecould.No, </t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So youthink you’re changed, do you?I’m </t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can’t remember things as Iused—and I don’t keep the same size for ten minutes together!Can’t </t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Well, I’ve tried to say How doth the little busy bee, </t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.Repeat, _You are old, Father William_,’ </t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">began:—You are old, Father William, </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">said,And your hair has become very white;And yet you incessantly stand on your head—Do you think, at your age, it is right?In </t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">son,I feared it might injure the brain;But, now that I’m perfectly sure I have none,Why, I do it again and again.You </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">as I mentioned before,And have grown most uncommonly fat;Yet you turned a back-somersault in at the door—Pray, what is the reason of that?In </t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locks,I kept all my limbs very suppleBy the use of this ointment—one shilling the box—Allow me to sell you a couple?You </t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and your jaws are too weakFor anything tougher than suet;Yet you finished the goose, with the bones and the beak—Pray, how did you manage to do it?In </t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I took to the law,And argued each case with my wife;And the muscular strength, which it gave to my jaw,Has lasted the rest of my life.You </t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">one would hardly supposeThat your eye was as steady as ever;Yet you balanced an eel on the end of your nose—What made you so awfully clever?I </t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">don’t give yourself airs!Do you think I can listen all day to such stuff?Be off, or I’ll kick you down stairs!That </t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Not _quite_ right, I’m afraid, </t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">some of thewords have got altered.It </t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">speak.What size do you want to be? </t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.Oh, I’m not particular as to size, </t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">only onedoesn’t like changing so often, you know.I </t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">temper.Are you content now? </t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterpillar.Well, I should like to be a _little_ larger, sir, if you wouldn’tmind, </t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">three inches is such a wretched height to be.It </t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">high).But I’m not used to it! </t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wish the creatures wouldn’t be so easilyoffended!You’ll </t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">went,One side will make you grow taller, and the other side will make yougrow shorter.One </t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">toherself.Of the mushroom, </t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hand.And now which is which? </t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Come, my head’s free at last! </t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">her.What _can_ all that green stuff be? </t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And where _have_ myshoulders got to? And oh, my poor hands, how is it I can’t see you?She </t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wings.Serpent! </t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pigeon.I’m _not_ a serpent! </t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let me alone!Serpent, </t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve tried every way, and nothingseems to suit them!I </t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.I’ve tried the roots of trees, and I’ve tried banks, and I’ve triedhedges, </t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but thoseserpents! There’s no pleasing them!Alice </t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">finished.As if it wasn’t trouble enough hatching the eggs, </t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pigeon;but I must be on the look-out for serpents night and day! Why, Ihaven’t had a wink of sleep these three weeks!I’m </t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">meaning.And just as I’d taken the highest tree in the wood, </t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and just as I was thinking Ishould be free of them at last, they must needs come wriggling downfrom the sky! Ugh, Serpent!But </t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m a—I’m a—Well! </t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can see you’re trying toinvent something!I—I’m </t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">day.A likely story indeed! </t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve seen a good many little girls in my time, but never_one_ with such a neck as that! No, no! You’re a serpent; and there’sno use denying it. I suppose you’ll be telling me next that you nevertasted an egg!I </t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but little girls eat eggs quite as much as serpents do, youknow.I </t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but if they do, why thenthey’re a kind of serpent, that’s all I can say.This </t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You’relooking for eggs, I know _that_ well enough; and what does it matter tome whether you’re a little girl or a serpent?It </t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but I’m notlooking for eggs, as it happens; and if I was, I shouldn’t want_yours_: I don’t like them raw.Well, </t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come, there’s half my plandone now! How puzzling all these changes are! I’m never sure what I’mgoing to be, from one minute to another! However, I’ve got back to myright size: the next thing is, to get into that beautiful garden—how_is_ that to be done, I wonder? </t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">high.Whoever lives there, </t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’ll never do to come upon them_this_ size: why, I should frighten them out of their wits! </t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="n">
         <v>2057</v>
       </c>
-      <c r="J6" t="n">
+      <c r="EU6" t="n">
         <v>122</v>
       </c>
-      <c r="K6" t="n">
+      <c r="EV6" t="n">
         <v>5.930967428293632</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="EW6" t="inlineStr">
         <is>
           <t>['day']</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="EX6" t="inlineStr">
         <is>
           <t>['Pigeon']</t>
         </is>
@@ -784,54 +2820,521 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>108</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For the Duchess. An invitation from theQueen to play croquet. </t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">From the Queen.An invitation for the Duchess to play croquet.Then </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t xml:space="preserve">knocked.There’s no sort of use in knocking, </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t xml:space="preserve">and that fortwo reasons. First, because I’m on the same side of the door as youare; secondly, because they’re making such a noise inside, no one couldpossibly hear you. </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t xml:space="preserve">topieces.Please, then, </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+          <t xml:space="preserve">how am I to get in?There </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if we had the door between us. For instance,if you were _inside_, you might knock, and I could let you out, youknow. </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But perhaps he can’t help it,she </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">his eyes are so _very_ nearly at the top of hishead. But at any rate he might answer questions.—How am I to get in?she </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">aloud.I shall sit here, </t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">till tomorrow—At </t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">him.—or next day, maybe, </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">happened.How am I to get in? </t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone._Are_ you to get in at all? </t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That’s the firstquestion, you know.It </t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s reallydreadful, </t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the way all the creatures argue.It’s enough to drive one crazy!The </t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I shall sit here, </t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on and off, fordays and days.But </t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Anything you like, </t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">whistling.Oh, there’s no use in talking to him, </t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">he’sperfectly idiotic! </t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">soup.There’s certainly too much pepper in that soup! </t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ear.Please would you tell me, </t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">whyyour cat grins like that?It’s </t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and that’s why. Pig!She </t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again:—I didn’t know that Cheshire cats always grinned; in fact, I didn’tknow that cats _could_ grin.They </t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and most of ’em do.I </t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">conversation.You don’t know much, </t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and that’s a fact.Alice </t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">not.Oh, _please_ mind what you’re doing! </t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, there goes his _precious_ nose! </t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">itoff.If everybody minded their own business, </t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the world would go round a deal faster than it does.Which </t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justthink of what work it would make with the day and night! You see theearth takes twenty-four hours to turn round on its axis—Talking </t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">chop off her head!Alice </t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Twenty-four hours, I _think_; oris it twelve? I—Oh, </t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I never could abidefigures! </t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line:Speak roughly to your little boy,And beat him when he sneezes:He only does it to annoy,Because he knows it teases.CHORUS.(In </t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">joined):Wow! wow! wow!While </t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">words:—I speak severely to my boy,I beat him when he sneezes;For he can thoroughly enjoyThe pepper when he pleases!CHORUS.Wow! </t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wow!Here! </t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I must go and get ready to playcroquet with the Queen, </t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">directions,just like a star-fish, </t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If I don’t take this child away with me,thought </t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they’re sure to kill it in a day or two: wouldn’t it bemurder to leave it behind? </t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">time).Don’t grunt, </t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that’s not at all a proper way ofexpressing yourself.The </t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But perhaps it was onlysobbing, </t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you’re going to turn into a pig, my dear,said </t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ll have nothing more to do with you. Mindnow! </t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now, what am I to dowith this creature when I get it home? </t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If it had grown up, </t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it would have made a dreadfully ugly child: but it makesrather a handsome pig, I think. </t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if one only knew the right way to change them— </t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">respect.Cheshire Puss, </t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come, it’s pleased so far, </t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on.Would you tell me, please, which way I ought to go from here?That </t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cat.I don’t much care where— </t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Then it doesn’t matter which way you go, </t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cat.—so long as I get _somewhere_, </t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation.Oh, you’re sure to do that, </t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if you only walk longenough.Alice </t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What sort of people live about here?In </t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">livesa Hatter: and in _that_ direction, </t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lives aMarch Hare. Visit either you like: they’re both mad.But </t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remarked.Oh, you can’t help that, </t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we’re all mad here. I’m mad.You’re mad.How </t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.You must be, </t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">or you wouldn’t have come here.Alice </t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And howdo you know that you’re mad?To </t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a dog’s not mad. You grant that?I </t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Well, then, </t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you see, a dog growls when it’s angry,and wags its tail when it’s pleased. Now _I_ growl when I’m pleased,and wag my tail when I’m angry. Therefore I’m mad._I_ </t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Call it what you like, </t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do you play croquet with theQueen to-day?I </t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but I haven’t been invitedyet.You’ll </t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again.By-the-bye, what became of the baby? </t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’d nearlyforgotten to ask.It </t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">way.I thought it would, </t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve seen hatters before, </t>
+        </is>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the March Hare will be much the most interesting, andperhaps as this is May it won’t be raving mad—at least not so mad as itwas in March. </t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tree.Did you say pig, or fig? </t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cat.I said pig, </t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and I wish you wouldn’t keep appearingand vanishing so suddenly: you make one quite giddy.All </t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gone.Well! I’ve often seen a cat without a grin, </t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but agrin without a cat! It’s the most curious thing I ever saw in my life!She </t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suppose it should be raving mad after all!I almost wish I’d gone to see the Hatter instead! </t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
+      <c r="ER7" t="inlineStr"/>
+      <c r="ES7" t="inlineStr"/>
+      <c r="ET7" t="n">
         <v>2357</v>
       </c>
-      <c r="J7" t="n">
+      <c r="EU7" t="n">
         <v>146</v>
       </c>
-      <c r="K7" t="n">
+      <c r="EV7" t="n">
         <v>6.194314806957998</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="EW7" t="inlineStr">
         <is>
           <t>['day', 'March', 'May']</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="EX7" t="inlineStr">
         <is>
           <t>['Footman', 'Cat', 'Duchess']</t>
         </is>
@@ -841,54 +3344,601 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>148</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veryuncomfortable for the Dormouse, </t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve">only, as it’s asleep,I suppose it doesn’t mind.The </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t xml:space="preserve">No room! No room! </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89</t>
+          <t xml:space="preserve">There’s _plenty_ of room! </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t xml:space="preserve">table.Have some wine, </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t xml:space="preserve">tea.I don’t see any wine, </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t xml:space="preserve">remarked.There isn’t any, </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.Then it wasn’t very civil of you to offer it, </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">angrily.It wasn’t very civil of you to sit down without being invited, </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.I didn’t know it was _your_ table, </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s laid for a greatmany more than three.Your </t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">firstspeech.You should learn not to make personal remarks, </t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s very rude.The </t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why is a raven like a writing-desk?Come, </t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m glad they’vebegun asking riddles.—I believe I can guess that, </t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">aloud.Do you mean that you think you can find out the answer to it? </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.Exactly so, </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Then you should say what you mean, </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on.I do, </t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">at least—at least I mean what Isay—that’s the same thing, you know.Not </t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You might just as wellsay that ‘I see what I eat’ is the same thing as ‘I eat what I see’!You </t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that ‘I like whatI get’ is the same thing as ‘I get what I like’!You </t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that ‘I breathe when I sleep’ is the same thingas ‘I sleep when I breathe’!It </t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What day of the monthis it? </t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The fourth.Two </t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I told you butter wouldn’t suitthe works! </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.It was the _best_ butter, </t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">replied.Yes, but some crumbs must have got in as well, </t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grumbled:you shouldn’t have put it in with the bread-knife.The </t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was the _best_ butter,you know.Alice </t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What afunny watch! </t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It tells the day of the month, and doesn’ttell what o’clock it is!Why </t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Does _your_ watch tell you whatyear it is?Of </t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but that’s because itstays the same year for such a long time together.Which </t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’t quiteunderstand you, </t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">could.The Dormouse is asleep again, </t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Of course, of course; just what I was going to remark myself.Have </t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aliceagain.No, I give it up, </t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what’s the answer?I </t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatter.Nor I, </t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think you might do something better with thetime, </t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">than waste it in asking riddles that have noanswers.If </t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you wouldn’t talkabout wasting _it_. It’s _him_.I </t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Of course you don’t! </t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I dare say you never even spoke to Time!Perhaps </t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but I know I have to beattime when I learn music.Ah! </t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He won’t stand beating.Now, if you only kept on good terms with him, he’d do almost anythingyou liked with the clock. For instance, suppose it were nine o’clock inthe morning, just time to begin lessons: you’d only have to whisper ahint to Time, and round goes the clock in a twinkling! Half-past one,time for dinner!(I </t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">whisper.)That would be grand, certainly, </t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but then—Ishouldn’t be hungry for it, you know.Not </t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but you could keep it tohalf-past one as long as you liked.Is </t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not I! </t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wequarrelled last March—just before _he_ went mad, you know— </t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—it was at the great concertgiven by the Queen of Hearts, and I had to sing‘Twinkle, twinkle, little bat!How I wonder what you’re at!’You know the song, perhaps?I’ve </t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.It goes on, you know, </t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">in this way:—‘Up above the world you fly,Like a tea-tray in the sky.Twinkle, twinkle—’Here </t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sleep_Twinkle, twinkle, twinkle, twinkle_— </t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stop.Well, I’d hardly finished the first verse, </t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">when theQueen jumped up and bawled out, ‘He’s murdering the time! Off with hishead!’How </t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.And ever since that, </t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">he won’tdo a thing I ask! It’s always six o’clock now.A </t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Is that the reason so manytea-things are put out here? </t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.Yes, that’s it, </t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s always tea-time,and we’ve no time to wash the things between whiles.Then </t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Exactly so, </t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">as the things get used up.But </t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ask.Suppose we change the subject, </t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yawning.I’m getting tired of this. I vote the young lady tells us a story.I’m </t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">theproposal.Then the Dormouse shall! </t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wake up, Dormouse! </t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wasn’t asleep, </t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I heard every word you fellows were saying.Tell </t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.Yes, please do! </t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.And be quick about it, </t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">or you’ll be asleep againbefore it’s done.Once </t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and their names were Elsie, Lacie, and Tillie; andthey lived at the bottom of a well—What </t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drinking.They lived on treacle, </t>
+        </is>
+      </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ortwo.They couldn’t have done that, you know, </t>
+        </is>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remarked;they’d have been ill.So </t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_very_ ill.Alice </t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Butwhy did they live at the bottom of a well?Take </t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">earnestly.I’ve had nothing yet, </t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">so I can’ttake more.You </t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s very easy totake _more_ than nothing.Nobody </t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Who’s making personal remarks now? </t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why did they live at the bottom of a well?The </t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was a treacle-well.There’s </t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sh! sh! </t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you can’t be civil, you’d better finish the story foryourself.No, </t>
+        </is>
+      </c>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I won’t interrupt again. Idare say there may be _one_.One, </t>
+        </is>
+      </c>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And so these three little sisters—they were learning to draw,you know—What </t>
+        </is>
+      </c>
+      <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">promise.Treacle, </t>
+        </is>
+      </c>
+      <c r="DX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">time.I want a clean cup, </t>
+        </is>
+      </c>
+      <c r="DY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">let’s all move one placeon.He </t>
+        </is>
+      </c>
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But I don’t understand. Where did they draw the treaclefrom?You </t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">so I shouldthink you could draw treacle out of a treacle-well—eh, stupid?But </t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remark.Of course they were, </t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—well in.This </t>
+        </is>
+      </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it.They were learning to draw, </t>
+        </is>
+      </c>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and they drew all manner ofthings—everything that begins with an M—Why </t>
+        </is>
+      </c>
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Why not? </t>
+        </is>
+      </c>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—that begins with an M, such asmouse-traps, and the moon, and memory, and muchness—you know you saythings are much of a muchness—did </t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">muchness?Really, </t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’tthink—Then </t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">teapot.At any rate I’ll never go _there_ again! </t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s the stupidest tea-party I ever was at inall my life!Just </t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That’s very curious! </t>
+        </is>
+      </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buteverything’s curious today. I think I may as well go in at once. </t>
+        </is>
+      </c>
+      <c r="ES8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now, I’ll manage better this time, </t>
+        </is>
+      </c>
+      <c r="ET8" t="n">
         <v>2054</v>
       </c>
-      <c r="J8" t="n">
+      <c r="EU8" t="n">
         <v>111</v>
       </c>
-      <c r="K8" t="n">
+      <c r="EV8" t="n">
         <v>5.404089581304771</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="EW8" t="inlineStr">
         <is>
           <t>['day', 'March', 'Half-past']</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="EX8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -898,54 +3948,457 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>89</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Look out now, Five! Don’t go splashing paint over melike that!I </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t xml:space="preserve">Seven jogged myelbow.On </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t xml:space="preserve">That’s right, Five! Always lay theblame on others!_You’d_ </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+          <t xml:space="preserve">I heard the Queen say onlyyesterday you deserved to be beheaded!What </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">first.That’s none of _your_ business, Two! </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seven.Yes, it _is_ his business! </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and I’ll tell him—it was forbringing the cook tulip-roots instead of onions.Seven </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, of all the unjustthings— </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">low.Would you tell me, </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">why you arepainting those roses?Five </t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why the fact is, you see, Miss, this here ought to have been a_red_ rose-tree, and we put a white one in by mistake; and if the Queenwas to find it out, we should all have our heads cut off, you know. Soyou see, Miss, we’re doing our best, afore she comes, to— </t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Queen! The Queen! </t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and besides, what would be the use of aprocession, </t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if people had all to lie down upon theirfaces, so that they couldn’t see it? </t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who is this? </t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reply.Idiot! </t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What’s your name, child?My </t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why, they’re only a pack of cards, afterall. I needn’t be afraid of them!And </t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">children.How should _I_ know? </t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’sno business of _mine_.The </t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off with her head! Off—Nonsense! </t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consider, mydear: she is only a child!The </t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnthem over!The </t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">foot.Get up! </t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">else.Leave off that! </t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You make me giddy. </t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What _have_ you been doinghere?May </t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we were trying—_I_ </t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">roses.Off with their heads! </t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">protection.You shan’t be beheaded! </t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">theothers.Are their heads off? </t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.Their heads are gone, if it please your Majesty! </t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reply.That’s right! </t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can you play croquet?The </t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">her.Yes! </t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Come on, then! </t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">next.It’s—it’s a very fine day! </t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">face.Very, </t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—where’s the Duchess?Hush! </t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She’s undersentence of execution.What </t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Did you say ‘What a pity!’? </t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.No, I didn’t, </t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’t think it’s at all a pity. I said‘What for?’She </t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, hush! </t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Queen will hear you! You see, she came rather late, and theQueen said—Get </t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off with his head! </t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off with her head! </t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">minute,and then, </t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what would become of me? They’re dreadfullyfond of beheading people here; the great wonder is, that there’s anyone left alive!She </t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s the Cheshire Cat: now I shall have somebody to talkto.How </t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s no usespeaking to it, </t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">till its ears have come, or at least oneof them. </t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">appeared.I don’t think they play at all fairly, </t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and they all quarrel so dreadfully one can’t hearoneself speak—and they don’t seem to have any rules in particular; atleast, if there are, nobody attends to them—and you’ve no idea howconfusing it is all the things being alive; for instance, there’s thearch I’ve got to go through next walking about at the other end of theground—and I should have croqueted the Queen’s hedgehog just now, onlyit ran away when it saw mine coming!How </t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.Not at all, </t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">she’s so extremely— </t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on,—likely to win, that it’s hardly worth while finishing the game.The </t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on.Who _are_ you talking to? </t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">curiosity.It’s a friend of mine—a Cheshire Cat, </t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">allow me tointroduce it.I </t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">however, it maykiss my hand if it likes.I’d </t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remarked.Don’t be impertinent, </t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and don’t look at me likethat! </t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spoke.A cat may look at a king, </t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve read that in some book,but I don’t remember where.Well, </t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My dear! I wish you wouldhave this cat removed!The </t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off with his head! </t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">round.I’ll fetch the executioner myself, </t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but it doesn’tmatter much, </t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">as all the arches are gone from this sideof the ground. </t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It belongs to theDuchess: you’d better ask _her_ about it.She’s </t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fetch her here.And </t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr"/>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr"/>
+      <c r="DW9" t="inlineStr"/>
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr"/>
+      <c r="EA9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr"/>
+      <c r="ED9" t="inlineStr"/>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr"/>
+      <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr"/>
+      <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr"/>
+      <c r="EO9" t="inlineStr"/>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
+      <c r="ER9" t="inlineStr"/>
+      <c r="ES9" t="inlineStr"/>
+      <c r="ET9" t="n">
         <v>2255</v>
       </c>
-      <c r="J9" t="n">
+      <c r="EU9" t="n">
         <v>104</v>
       </c>
-      <c r="K9" t="n">
+      <c r="EV9" t="n">
         <v>4.611973392461198</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="EW9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="EX9" t="inlineStr">
         <is>
           <t>['Cat']</t>
         </is>
@@ -955,54 +4408,569 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>133</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">StoryYou can’t think how glad I am to see you again, you dear old thing!said </t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">kitchen.When _I’m_ a Duchess, </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t xml:space="preserve">I won’t have any pepper in my kitchen _at all_. Soupdoes very well without—Maybe it’s always pepper that makes peoplehot-tempered, </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t xml:space="preserve">and vinegar that makes them sour—and camomile that makesthem bitter—and—and barley-sugar and such things that make childrensweet-tempered. I only wish people knew _that_: then they wouldn’t beso stingy about it, you know—She </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
+          <t xml:space="preserve">You’re thinkingabout something, my dear, and that makes you forget to talk. I can’ttell you just now what the moral of that is, but I shall remember it ina bit.Perhaps </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+          <t xml:space="preserve">remark.Tut, tut, child! </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everything’s got a moral, if onlyyou can find it. </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">could.The game’s going on rather better now, </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">little.’Tis so, </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and the moral of that is—‘Oh, ’tis love,’tis love, that makes the world go round!’Somebody </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that it’s done by everybody mindingtheir own business!Ah, </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and the moral of_that_ is—‘Take care of the sense, and the sounds will take care ofthemselves.’How </t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">toherself.I dare say you’re wondering why I don’t put my arm round your waist,the </t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the reason is, that I’m doubtful aboutthe temper of your flamingo. Shall I try the experiment?He </t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tried.Very true, </t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">flamingoes and mustard both bite. Andthe moral of that is—‘Birds of a feather flock together.’Only </t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remarked.Right, as usual, </t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what a clear way you have ofputting things!It’s </t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Of course it is, </t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">there’s a large mustard-mine near here.And the moral of that is—‘The more there is of mine, the less there isof yours.’Oh, </t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s a vegetable. It doesn’t look like one, but it is.I </t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and the moral of thatis—‘Be what you would seem to be’—or if you’d like it put moresimply—‘Never imagine yourself not to be otherwise than what it mightappear to others that what you were or might have been was nototherwise than what you had been would have appeared to them to beotherwise.’I </t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">politely,if I had it written down: but I can’t quite follow it as you say it.That’s </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone.Pray don’t trouble yourself to say it any longer than that, </t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saidAlice.Oh, don’t talk about trouble! </t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I make you a presentof everything I’ve said as yet.A </t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m glad they don’t givebirthday presents like that! </t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">outloud.Thinking again? </t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">chin.I’ve a right to think, </t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">worried.Just about as much right, </t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">as pigs have to fly; andthe m—But </t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">athunderstorm.A fine day, your Majesty! </t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.Now, I give you fair warning, </t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">either you or your head must be off, and that inabout half no time! Take your choice!The </t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">moment.Let’s go on with the game, </t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off with his head! </t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Off withher head! </t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haveyou seen the Mock Turtle yet?No, </t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’t even know what a Mock Turtle is.It’s </t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.I never saw one, or heard of one, </t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Come on, then, </t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and he shall tell you his history,As </t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You are all pardoned. </t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come, _that’s_ agood thing! </t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Up, lazything! </t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and take this young lady to see the MockTurtle, and to hear his history. I must go back and see after someexecutions I have ordered; </t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What fun! </t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.What _is_ the fun? </t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Why, _she_, </t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s all her fancy, that: they neverexecutes nobody, you know. Come on!Everybody </t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I never was so ordered about in all my life, never!They </t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is his sorrow? </t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s allhis fancy, that: he hasn’t got no sorrow, you know. Come on!So </t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nothing.This here young lady, </t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">she wants for to know yourhistory, she do.I’ll </t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sitdown, both of you, and don’t speak a word till I’ve finished.So </t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don’t see how he can _ever_ finish, if he doesn’t begin.But </t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">patiently.Once, </t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was a realTurtle.These </t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hjckrrh! </t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you, sir, for your interesting story, </t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saidnothing.When we were little, </t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we went to school in thesea. The master was an old Turtle—we used to call him Tortoise—Why </t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.We called him Tortoise because he taught us, </t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">really you are very dull!You </t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drive on, old fellow! Don’t be allday about it! </t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">words:Yes, we went to school in the sea, though you mayn’t believe it—I </t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.You did, </t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.Hold your tongue! </t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on.We had the best of educations—in fact, we went to school every day—_I’ve_ </t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you needn’t be soproud as all that.With </t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">anxiously.Yes, </t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we learned French and music.And </t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.Certainly not! </t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">indignantly.Ah! then yours wasn’t a really good school, </t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now at _ours_ they had at the end of the bill,‘French, music, _and washing_—extra.’You </t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">living at the bottomof the sea.I </t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ionly took the regular course.What </t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Reeling and Writhing, of course, to begin with, </t>
+        </is>
+      </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and then the different branches of Arithmetic—Ambition,Distraction, Uglification, and Derision.I </t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is it?The </t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What! Never heard ofuglifying! </t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You know what to beautify is, I suppose?Yes, </t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it means—to—make—anything—prettier.Well, </t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr"/>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if you don’t know what to uglifyis, you _are_ a simpleton.Alice </t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What else had you to learn?Well, </t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—Mystery, ancient and modern, withSeaography: then Drawling—the Drawling-master was an old conger-eel,that used to come once a week: _he_ taught us Drawling, Stretching, andFainting in Coils.What </t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Well, I can’t show it you myself, </t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m toostiff. And the Gryphon never learnt it.Hadn’t </t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I went to the Classics master,though. He was an old crab, _he_ was.I </t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">he taughtLaughing and Grief, they used to say.So </t>
+        </is>
+      </c>
+      <c r="DS10" t="inlineStr"/>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">paws.And how many hours a day did you do lessons? </t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">subject.Ten hours the first day, </t>
+        </is>
+      </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nine the next, and soon.What </t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr"/>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.That’s the reason they’re called lessons, </t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remarked:because they lessen from day to day.This </t>
+        </is>
+      </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then the eleventh day must have beena holiday?Of </t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr"/>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.And how did you manage on the twelfth? </t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eagerly.That’s enough about lessons, </t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tell her something about the games now. </t>
+        </is>
+      </c>
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
+      <c r="EG10" t="inlineStr"/>
+      <c r="EH10" t="inlineStr"/>
+      <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="inlineStr"/>
+      <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr"/>
+      <c r="EO10" t="inlineStr"/>
+      <c r="EP10" t="inlineStr"/>
+      <c r="EQ10" t="inlineStr"/>
+      <c r="ER10" t="inlineStr"/>
+      <c r="ES10" t="inlineStr"/>
+      <c r="ET10" t="n">
         <v>2047</v>
       </c>
-      <c r="J10" t="n">
+      <c r="EU10" t="n">
         <v>118</v>
       </c>
-      <c r="K10" t="n">
+      <c r="EV10" t="n">
         <v>5.764533463605276</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="EW10" t="inlineStr">
         <is>
           <t>['day']</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="EX10" t="inlineStr">
         <is>
           <t>['French', 'Duchess', 'Gryphon']</t>
         </is>
@@ -1012,54 +4980,521 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>119</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Same as if he had a bone in his throat,said </t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">again:—You may not have lived much under the sea— </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t xml:space="preserve">(I haven’t, </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t xml:space="preserve">saidAlice)—and perhaps you were never even introduced to a lobster—(Alice </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t xml:space="preserve">I once tasted— </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t xml:space="preserve">No, never) </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+          <t xml:space="preserve">—so you can have no idea what a delightful thing aLobster Quadrille is!No, </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What sort of a dance is it?Why, </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you first form into a line along thesea-shore—Two </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seals, turtles, salmon, and so on;then, when you’ve cleared all the jelly-fish out of the way—_That_ </t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.—you advance twice—Each </t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.Of course, </t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">advance twice, set to partners——change </t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.Then, you know, </t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you throw the—The </t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">air.—as far out to sea as you can—Swim </t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.Turn a somersault in the sea! </t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wildlyabout.Change lobsters again! </t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.Back to land again, and that’s all the first figure, </t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.It must be a very pretty dance, </t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">timidly.Would you like to see a little of it? </t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.Very much indeed, </t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Come, let’s try the first figure! </t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We can do without lobsters, you know. Which shall sing?Oh, </t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve forgotten the words.So </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sadly:—Will you walk a little faster? </t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">snail.There’s a porpoise close behind us, and he’s treading on my tail.See how eagerly the lobsters and the turtles all advance!They are waiting on the shingle—will you come and join the dance?Will you, won’t you, will you, won’t you, will you join the dance?Will you, won’t you, will you, won’t you, won’t you join the dance?You can really have no notion how delightful it will beWhen they take us up and throw us, with the lobsters, out to sea!But </t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Too far, too far! </t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dance.What matters it how far we go? </t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">replied.There is another shore, you know, upon the other side.The further off from England the nearer is to France—Then turn not pale, beloved snail, but come and join the dance.Will you, won’t you, will you, won’t you, will you join the dance?Will you, won’t you, will you, won’t you, won’t you join the dance?Thank </t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and I do so like thatcurious song about the whiting!Oh, </t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they—you’ve seen them,of course?Yes, </t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve often seen them at dinn— </t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">herselfhastily.I don’t know where Dinn may be, </t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but if you’veseen them so often, of course you know what they’re like.I </t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They have their tails intheir mouths—and they’re all over crumbs.You’re </t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crumbs wouldall wash off in the sea. But they _have_ their tails in their mouths;and the reason is— </t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hiseyes.—Tell her about the reason and all that, </t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.The reason is, </t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that they _would_ go with thelobsters to the dance. So they got thrown out to sea. So they had tofall a long way. So they got their tails fast in their mouths. So theycouldn’t get them out again. That’s all.Thank </t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it’s very interesting. I never knew so muchabout a whiting before.I </t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do youknow why it’s called a whiting?I </t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why?_It </t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Does the boots and shoes! </t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone.Why, what are _your_ shoes done with? </t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I mean, whatmakes them so shiny?Alice </t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They’re done with blacking, I believe.Boots </t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice,are done with a whiting. Now you know.And </t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">curiosity.Soles and eels, of course, </t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">impatiently:any shrimp could have told you that.If </t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’d have said to the porpoise, ‘Keep back,please: we don’t want _you_ with us!’They </t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nowise fish would go anywhere without a porpoise.Wouldn’t </t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">surprise.Of course not, </t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">why, if a fish came to _me_,and told me he was going a journey, I should say ‘With what porpoise?’Don’t </t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.I mean what I say, </t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come, let’s hear some of _your_ adventures.I </t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but it’s no use going back to yesterday,because I was a different person then.Explain </t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.No, no! The adventures first, </t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone:explanations take such a dreadful time.So </t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_You are old, Father William_, </t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That’s very curious.It’s </t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.It all came different! </t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ishould like to hear her try and repeat something now. Tell her tobegin. </t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Stand up and repeat ‘’_Tis the voice of the sluggard_,’ </t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">theGryphon.How the creatures order one about, and make one repeat lessons!thought </t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I might as well be at school at once. </t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">indeed:—’Tis the voice of the Lobster; I heard him declare,You have baked me too brown, I must sugar my hair.As </t>
+        </is>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sound.]That’s different from what _I_ used to say when I was a child, </t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryphon.Well, I never heard it before, </t>
+        </is>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but it soundsuncommon nonsense.Alice </t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again.I should like to have it explained, </t>
+        </is>
+      </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle.She can’t explain it, </t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Go on with the nextverse.But </t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How _could_ he turnthem out with his nose, you know?It’s </t>
+        </is>
+      </c>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">subject.Go on with the next verse, </t>
+        </is>
+      </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">itbegins ‘_I passed by his garden_.’Alice </t>
+        </is>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice:—I passed by his garden, and marked, with one eye,How the Owl and the Panther were sharing a pie—[later </t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">banquet—]What _is_ the use of repeating all that stuff, </t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if you don’t explain it as you go on? It’s by far themost confusing thing _I_ ever heard!Yes, </t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">so.Shall we try another figure of the Lobster Quadrille? </t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Or would you like the Mock Turtle to sing you a song?Oh, </t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr"/>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tone,Hm! No accounting for tastes! Sing her ‘_Turtle Soup_,’ will you, oldfellow?The </t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">this:—Beautiful Soup, so rich and green,Waiting in a hot tureen!Who for such dainties would not stoop?Soup of the evening, beautiful Soup!Soup of the evening, beautiful Soup!Beau—ootiful Soo—oop!Beau—ootiful Soo—oop!Soo—oop of the e—e—evening,Beautiful, beautiful Soup!Beautiful Soup! Who cares for fish,Game, or any other dish?Who would not give all else for two pennyworth only of beautiful Soup?Pennyworth only of beautiful Soup?Beau—ootiful Soo—oop!Beau—ootiful Soo—oop!Soo—oop of the e—e—evening,Beautiful, beauti—FUL SOUP!Chorus </t>
+        </is>
+      </c>
+      <c r="DK11" t="inlineStr"/>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The trial’s beginning! </t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thedistance.Come on! </t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">song.What trial is it? </t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come on! </t>
+        </is>
+      </c>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">words:—Soo—oop of the e—e—evening,Beautiful, beautiful Soup! </t>
+        </is>
+      </c>
+      <c r="DQ11" t="inlineStr"/>
+      <c r="DR11" t="inlineStr"/>
+      <c r="DS11" t="inlineStr"/>
+      <c r="DT11" t="inlineStr"/>
+      <c r="DU11" t="inlineStr"/>
+      <c r="DV11" t="inlineStr"/>
+      <c r="DW11" t="inlineStr"/>
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="inlineStr"/>
+      <c r="DZ11" t="inlineStr"/>
+      <c r="EA11" t="inlineStr"/>
+      <c r="EB11" t="inlineStr"/>
+      <c r="EC11" t="inlineStr"/>
+      <c r="ED11" t="inlineStr"/>
+      <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="inlineStr"/>
+      <c r="EG11" t="inlineStr"/>
+      <c r="EH11" t="inlineStr"/>
+      <c r="EI11" t="inlineStr"/>
+      <c r="EJ11" t="inlineStr"/>
+      <c r="EK11" t="inlineStr"/>
+      <c r="EL11" t="inlineStr"/>
+      <c r="EM11" t="inlineStr"/>
+      <c r="EN11" t="inlineStr"/>
+      <c r="EO11" t="inlineStr"/>
+      <c r="EP11" t="inlineStr"/>
+      <c r="EQ11" t="inlineStr"/>
+      <c r="ER11" t="inlineStr"/>
+      <c r="ES11" t="inlineStr"/>
+      <c r="ET11" t="n">
         <v>1819</v>
       </c>
-      <c r="J11" t="n">
+      <c r="EU11" t="n">
         <v>86</v>
       </c>
-      <c r="K11" t="n">
+      <c r="EV11" t="n">
         <v>4.727872457394173</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="EW11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="EX11" t="inlineStr">
         <is>
           <t>['Gryphon']</t>
         </is>
@@ -1069,54 +5504,497 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>101</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">them—I wish they’dget the trial done, </t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve">and hand round the refreshments!But </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t xml:space="preserve">That’s the judge, </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t xml:space="preserve">because of his great wig.The </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t xml:space="preserve">becoming.And that’s the jury-box, </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t xml:space="preserve">and those twelve creatures,(she </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+          <t xml:space="preserve">creatures, </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I suppose they are the jurors. </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jury-menwould </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What arethey doing? </t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They can’t have anythingto put down yet, before the trial’s begun.They’re </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reply,for fear they should forget them before the end of the trial.Stupid </t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silence in thecourt! </t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stupid things! </t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spellstupid, </t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A nicemuddle their slates’ll be in before the trial’s over! </t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">slate.Herald, read the accusation! </t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">follows:—The Queen of Hearts, she made some tarts,All on a summer day:The Knave of Hearts, he stole those tarts,And took them quite away!Consider </t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jury.Not yet, not yet! </t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There’s a greatdeal to come before that!Call </t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First witness!The </t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I beg pardon, yourMajesty, </t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">for bringing these in: but I hadn’t quite finishedmy tea when I was sent for.You </t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When did you begin?The </t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fourteenth of March, I _think_ itwas, </t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">said.Fifteenth, </t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.Sixteenth, </t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dormouse.Write that down, </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pence.Take off your hat, </t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatter.It isn’t mine, </t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatter._Stolen!_ </t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fact.I keep them to sell, </t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve noneof my own. I’m a hatter.Here </t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fidgeted.Give your evidence, </t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and don’t be nervous, or I’llhave you executed on the spot.This </t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">her.I wish you wouldn’t squeeze so. </t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can hardly breathe.I </t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m growing.You’ve </t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dormouse.Don’t talk nonsense, </t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">you know you’re growingtoo.Yes, </t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">not inthat ridiculous fashion. </t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bring me the list of the singers in the last concert!on </t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shoesoff.Give your evidence, </t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">or I’ll have youexecuted, whether you’re nervous or not.I’m </t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice,—and I hadn’t begun my tea—not above a week or so—and what with thebread-and-butter getting so thin—and the twinkling of the tea—The </t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King.It _began_ with the tea, </t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">replied.Of course twinkling begins with a T! </t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do youtake me for a dunce? Go on!I’m </t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and most things twinkled afterthat—only the March Hare said—I </t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hurry.You did! </t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatter.I deny it! </t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hare.He denies it, </t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">leave out that part.Well, </t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asleep.After that, </t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I cut some more bread-and-butter—But </t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.That I can’t remember, </t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatter.You _must_ remember, </t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">or I’ll have you executed.The </t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m a poor man, your Majesty, </t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">began.You’re a _very_ poor _speaker_, </t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it.)I’m glad I’ve seen that done, </t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ve so often read inthe newspapers, at the end of trials, There was some attempts atapplause, which was immediately suppressed by the officers of thecourt, </t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">now.If </t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">theKing.I can’t go no lower, </t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m on the floor, as it is.Then </t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">suppressed.Come, that finished the guinea-pigs! </t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now we shall geton better.I’d </t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">singers.You may go, </t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on.—and just take his head off outside, </t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">door.Call the next witness! </t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">once.Give your evidence, </t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King.Shan’t, </t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice,Your Majesty must cross-examine _this_ witness.Well, </t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What are tarts made of?Pepper, </t>
+        </is>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cook.Treacle, </t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">her.Collar that Dormouse, </t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behead that Dormouse!Turn that Dormouse out of court! Suppress him! Pinch him! Off with hiswhiskers!For </t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">haddisappeared.Never mind! </t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Call thenext witness. </t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Really, mydear, _you_ must cross-examine the next witness. It quite makes myforehead ache!Alice </t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">—for theyhaven’t got much evidence _yet_, </t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice! </t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr"/>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
+      <c r="ER12" t="inlineStr"/>
+      <c r="ES12" t="inlineStr"/>
+      <c r="ET12" t="n">
         <v>1696</v>
       </c>
-      <c r="J12" t="n">
+      <c r="EU12" t="n">
         <v>71</v>
       </c>
-      <c r="K12" t="n">
+      <c r="EV12" t="n">
         <v>4.186320754716981</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="EW12" t="inlineStr">
         <is>
           <t>['March', 'week']</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="EX12" t="inlineStr">
         <is>
           <t>['Gryphon']</t>
         </is>
@@ -1126,54 +6004,457 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>86</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EvidenceHere! </t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">before.Oh, I _beg_ your pardon! </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t xml:space="preserve">die.The trial cannot proceed, </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t xml:space="preserve">untilall the jurymen are back in their proper places—_all_, </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">not that it signifies much, </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t xml:space="preserve">I should think it would be _quite_ as much use in thetrial one way up as the other.As </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+          <t xml:space="preserve">thecourt.What do you know about this business? </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Nothing, </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Nothing _whatever?_ </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King.Nothing whatever, </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.That’s very important, </t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Un_important, your Majesty means, of course, </t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spoke._Un_important, of course, I meant, </t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">undertone,important—unimportant—unimportant—important— </t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">important, </t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unimportant.Alice </t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">slates;but it doesn’t matter a bit, </t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silence! </t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RuleForty-two. _All persons more than a mile high to leave the court_.Everybody </t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice._I’m_ not a mile high, </t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.You are, </t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King.Nearly two miles high, </t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.Well, I shan’t go, at any rate, </t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">besides, that’s not aregular rule: you invented it just now.It’s </t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King.Then it ought to be Number One, </t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consider yourverdict, </t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice.There’s more evidence to come yet, please your Majesty, </t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">this paper has just beenpicked up.What’s </t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.I haven’t opened it yet, </t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">but it seems to be aletter, written by the prisoner to—to somebody.It </t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unless it was written tonobody, which isn’t usual, you know.Who </t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jurymen.It isn’t directed at all, </t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">in fact, there’snothing written on the _outside_. </t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It isn’t a letter, after all: it’s a set of verses.Are </t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jurymen.No, they’re not, </t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and that’s the queerestthing about it. </t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">puzzled.)He must have imitated somebody else’s hand, </t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">again.)Please your Majesty, </t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I didn’t write it, and theycan’t prove I did: there’s no name signed at the end.If </t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that only makes the matterworse. You _must_ have meant some mischief, or else you’d have signedyour name like an honest man.There </t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">day.That _proves_ his guilt, </t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.It proves nothing of the sort! </t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why, you don’t even knowwhat they’re about!Read </t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Where shall I begin, pleaseyour Majesty? </t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asked.Begin at the beginning, </t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and go on till youcome to the end: then stop.These </t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">read:—They told me you had been to her,And mentioned me to him:She gave me a good character,But said I could not swim.He sent them word I had not gone(We know it to be true):If she should push the matter on,What would become of you?I gave her one, they gave him two,You gave us three or more;They all returned from him to you,Though they were mine before.If I or she should chance to beInvolved in this affair,He trusts to you to set them free,Exactly as we were.My notion was that you had been(Before she had this fit)An obstacle that came betweenHim, and ourselves, and it.Don’t let him know she liked them best,For this must ever beA secret, kept from all the rest,Between yourself and me.That’s </t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">so now let the jury—If </t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ll give him sixpence. _I_ don’t believe there’san atom of meaning in it.The </t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_She_ doesn’t believe there’san atom of meaning in it, </t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thepaper.If there’s no meaning in it, </t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">that saves a world oftrouble, you know, as we needn’t try to find any. And yet I don’tknow, </t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I seem to see some meaning in them, after all.—_said I could not swim_— </t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do I look like it? </t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cardboard.)All right, so far, </t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘_We know it to be true_—’ that’s the jury, ofcourse—‘_I gave her one, they gave him two_—’ why, that must be what hedid with the tarts, you know—But, </t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Why, there they are! </t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nothing can be clearer than _that_. Thenagain—‘_before she had this fit_—’ you never had fits, my dear, Ithink? </t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queen.Never! </t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lasted.)Then the words don’t _fit_ you, </t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">silence.It’s a pun! </t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let the jury consider their verdict, </t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">day.No, no! </t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sentence first—verdict afterwards.Stuff </t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The idea of having thesentence first!Hold </t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">purple.I won’t! </t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice.Off with her head! </t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobodymoved.Who cares for you? </t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You’re nothing but a pack of cards!At </t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">face.Wake up, Alice dear! </t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why, what a long sleep you’vehad!Oh, </t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It _was_ a curiousdream, dear, certainly: but now run in to your tea; it’s getting late.So </t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="n">
         <v>1904</v>
       </c>
-      <c r="J13" t="n">
+      <c r="EU13" t="n">
         <v>111</v>
       </c>
-      <c r="K13" t="n">
+      <c r="EV13" t="n">
         <v>5.829831932773109</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="EW13" t="inlineStr">
         <is>
           <t>['March', 'week']</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="EX13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
